--- a/Hardware/IONQ.xlsx
+++ b/Hardware/IONQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35918EB-D3AB-AE49-97CF-4A6CC7A6117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5349DF12-142C-854E-B1DF-E8C00CB73A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,11 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>18.2</v>
+    <v>29.48</v>
     <v>6.22</v>
-    <v>1.8895999999999999</v>
-    <v>1.1000000000000001</v>
-    <v>7.1661000000000002E-2</v>
+    <v>2.0234999999999999</v>
+    <v>2.66</v>
+    <v>0.10543</v>
+    <v>0.01</v>
+    <v>3.5860000000000004E-4</v>
     <v>USD</v>
     <v>IonQ, Inc. is engaged in quantum computing that delivers high-performance systems capable of solving commercial and research use cases. The Company's quantum computer, IonQ Forte, boasts 36 algorithmic qubits. It sells specialized quantum computing hardware together with related maintenance and support. The Company has developed custom hardware, custom firmware, and an operating system to orchestrate the quantum computers. The Company also sells access to several quantum computers of various qubit capacities and is in the process of researching and developing technologies for quantum computers with increasing computational capabilities. The Company makes access to its quantum computers available via three cloud platforms, Amazon Web Services (AWS) Amazon Braket, Microsoft's Azure Quantum and Google's Cloud Marketplace, and also to select customers via its own cloud service. This cloud-based approach enables the availability of quantum-computing-as-a-service (QCaaS).</v>
     <v>324</v>
@@ -1952,23 +1954,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4505 Campus Drive, Suite 100, COLLEGE PARK, MD, 20740 US</v>
-    <v>16.829999999999998</v>
+    <v>28.3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.949999316406</v>
+    <v>45616.041630971878</v>
     <v>0</v>
-    <v>15.85</v>
-    <v>3521553490</v>
+    <v>24.87</v>
+    <v>6035178458</v>
     <v>IONQ, INC.</v>
     <v>IONQ, INC.</v>
-    <v>16.73</v>
-    <v>15.35</v>
-    <v>16.45</v>
-    <v>214076200</v>
+    <v>25.2</v>
+    <v>25.23</v>
+    <v>27.89</v>
+    <v>27.9</v>
+    <v>216392200</v>
     <v>IONQ</v>
     <v>IONQ, INC. (XNYS:IONQ)</v>
-    <v>92412</v>
-    <v>17226555</v>
+    <v>30086631</v>
+    <v>29325221</v>
     <v>2020</v>
   </rv>
   <rv s="2">
@@ -2000,6 +2003,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2019,6 +2024,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2035,7 +2041,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2046,13 +2052,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2116,13 +2125,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2166,6 +2181,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2173,6 +2191,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2840,7 +2861,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2873,14 +2894,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>16.45</v>
+        <v>27.89</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>87.059418788627937</v>
+        <v>149.2009507540173</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2894,7 +2915,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>236361903.11471862</v>
+        <v>238919002.72510824</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2920,14 +2941,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.1661000000000002E-2</v>
+        <v>0.10543</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>-39.128372111111112</v>
+        <v>-67.057538422222223</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2968,14 +2989,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>3521553490</v>
+        <v>6035178458</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>-3.8051388508087092E-2</v>
+        <v>-2.2203154543404557E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3002,7 +3023,7 @@
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>5.0752986442532686</v>
+        <v>5.0209787951085652</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3017,7 +3038,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.8895999999999999</v>
+        <v>2.0234999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3050,7 +3071,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.6914712070362754</v>
+        <v>-0.81997207618829093</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
